--- a/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
+++ b/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Escritorio\QuantumAnts Software\QuantumAnts-Software\Desarrollo\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Proyecto_Grupo_5\QuantumAnts-Software\Desarrollo\SGDS\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C897912-8345-49CD-B53F-A5628996DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7837725-E423-40CC-BDE0-3586418679EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
@@ -703,9 +703,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="50">
     <font>
       <sz val="10"/>
@@ -1470,7 +1467,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1497,7 +1494,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,15 +1504,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,7 +1522,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1534,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1546,7 +1543,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,7 +1554,7 @@
     <xf numFmtId="9" fontId="27" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1576,7 +1573,7 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,7 +1592,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,6 +1675,7 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1691,7 +1689,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1913,8 +1910,8 @@
   </sheetPr>
   <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1931,23 +1928,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="114"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -2005,7 +2002,7 @@
         <v>45022</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="117"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -2137,7 +2134,7 @@
       <c r="H12" s="20">
         <v>1</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="111" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="2"/>
@@ -2166,7 +2163,7 @@
       <c r="H13" s="20">
         <v>1</v>
       </c>
-      <c r="I13" s="111"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
@@ -2192,7 +2189,7 @@
       <c r="H14" s="20">
         <v>1</v>
       </c>
-      <c r="I14" s="111"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
@@ -2218,7 +2215,7 @@
       <c r="H15" s="20">
         <v>1</v>
       </c>
-      <c r="I15" s="111"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -2245,7 +2242,7 @@
       <c r="H16" s="20">
         <v>1</v>
       </c>
-      <c r="I16" s="111"/>
+      <c r="I16" s="112"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -2272,7 +2269,7 @@
       <c r="H17" s="20">
         <v>1</v>
       </c>
-      <c r="I17" s="111"/>
+      <c r="I17" s="112"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
@@ -2299,7 +2296,7 @@
       <c r="H18" s="20">
         <v>1</v>
       </c>
-      <c r="I18" s="111"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
@@ -2326,7 +2323,7 @@
       <c r="H19" s="20">
         <v>1</v>
       </c>
-      <c r="I19" s="111"/>
+      <c r="I19" s="112"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
@@ -2353,7 +2350,7 @@
       <c r="H20" s="20">
         <v>1</v>
       </c>
-      <c r="I20" s="111"/>
+      <c r="I20" s="112"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
@@ -2380,7 +2377,7 @@
       <c r="H21" s="20">
         <v>1</v>
       </c>
-      <c r="I21" s="111"/>
+      <c r="I21" s="112"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
@@ -2407,7 +2404,7 @@
       <c r="H22" s="20">
         <v>1</v>
       </c>
-      <c r="I22" s="111"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
@@ -2434,7 +2431,7 @@
       <c r="H23" s="20">
         <v>1</v>
       </c>
-      <c r="I23" s="111"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
@@ -2515,7 +2512,7 @@
       <c r="H26" s="20">
         <v>1</v>
       </c>
-      <c r="I26" s="110" t="s">
+      <c r="I26" s="111" t="s">
         <v>73</v>
       </c>
       <c r="J26" s="2"/>
@@ -2541,10 +2538,10 @@
       <c r="G27" s="31">
         <v>45052</v>
       </c>
-      <c r="H27" s="33">
-        <v>0</v>
-      </c>
-      <c r="I27" s="111"/>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="112"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
@@ -2571,7 +2568,7 @@
       <c r="H28" s="33">
         <v>0</v>
       </c>
-      <c r="I28" s="110" t="s">
+      <c r="I28" s="111" t="s">
         <v>80</v>
       </c>
       <c r="J28" s="2"/>
@@ -2600,7 +2597,7 @@
       <c r="H29" s="33">
         <v>0</v>
       </c>
-      <c r="I29" s="111"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
@@ -2622,9 +2619,9 @@
       </c>
       <c r="H30" s="43">
         <f>SUM(H10:H29)/21</f>
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="I30" s="111"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I30" s="112"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="9"/>
@@ -2813,7 +2810,7 @@
       <c r="H37" s="54">
         <v>0</v>
       </c>
-      <c r="I37" s="110" t="s">
+      <c r="I37" s="111" t="s">
         <v>96</v>
       </c>
       <c r="J37" s="47"/>
@@ -2842,7 +2839,7 @@
       <c r="H38" s="54">
         <v>0</v>
       </c>
-      <c r="I38" s="111"/>
+      <c r="I38" s="112"/>
       <c r="J38" s="47"/>
       <c r="K38" s="2"/>
     </row>
@@ -2866,7 +2863,7 @@
         <f>SUM(H31:H38)/9</f>
         <v>0</v>
       </c>
-      <c r="I39" s="111"/>
+      <c r="I39" s="112"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="9"/>
@@ -3134,7 +3131,7 @@
       <c r="H49" s="54">
         <v>0</v>
       </c>
-      <c r="I49" s="110" t="s">
+      <c r="I49" s="111" t="s">
         <v>120</v>
       </c>
       <c r="J49" s="47"/>
@@ -3163,7 +3160,7 @@
       <c r="H50" s="54">
         <v>0</v>
       </c>
-      <c r="I50" s="111"/>
+      <c r="I50" s="112"/>
       <c r="J50" s="47"/>
       <c r="K50" s="2"/>
     </row>
@@ -3190,7 +3187,7 @@
       <c r="H51" s="54">
         <v>0</v>
       </c>
-      <c r="I51" s="110" t="s">
+      <c r="I51" s="111" t="s">
         <v>123</v>
       </c>
       <c r="J51" s="47"/>
@@ -3219,7 +3216,7 @@
       <c r="H52" s="54">
         <v>0</v>
       </c>
-      <c r="I52" s="111"/>
+      <c r="I52" s="112"/>
       <c r="J52" s="47"/>
       <c r="K52" s="2"/>
     </row>
@@ -3245,7 +3242,7 @@
         <f>SUM(H40:H52)/13</f>
         <v>0</v>
       </c>
-      <c r="I53" s="111"/>
+      <c r="I53" s="112"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="B54" s="22"/>
@@ -5049,10 +5046,10 @@
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="116"/>
+      <c r="C3" s="117"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
       <c r="B4" s="74" t="s">

--- a/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
+++ b/Desarrollo/SGDS/Gestion/SGDS - CP.XLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Proyecto_Grupo_5\QuantumAnts-Software\Desarrollo\SGDS\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7837725-E423-40CC-BDE0-3586418679EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D4C19-57A2-43A9-ABDA-130F25BA2191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="185">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -299,24 +299,15 @@
     <t>Implementación y Verificación del Requisito 01: Registro de hospitales</t>
   </si>
   <si>
-    <t>Documento de implementación y Verificación de Requisito 01</t>
-  </si>
-  <si>
     <t>DISEÑO</t>
   </si>
   <si>
     <t>Implementación y Verificación del Requisito 02: Registro de donantes</t>
   </si>
   <si>
-    <t>Documento de implementación y Verificación de Requisito 02</t>
-  </si>
-  <si>
     <t>Implementación y Verificación del Requisito 03: Programación de citas</t>
   </si>
   <si>
-    <t>Documento de implementación y Verificación de Requisito 03</t>
-  </si>
-  <si>
     <t>Implementación y Verificación del la base de datos</t>
   </si>
   <si>
@@ -339,42 +330,6 @@
   </si>
   <si>
     <t>Hito 2 - Fin del Sprint #2</t>
-  </si>
-  <si>
-    <t>Implementación y Verificación del Requisito 05: Validación de beneficios</t>
-  </si>
-  <si>
-    <t>Documento de implementación y Verificación de Requisito 04</t>
-  </si>
-  <si>
-    <t>Implementación y Verificación del Requisito 06: Entrega de beneficios</t>
-  </si>
-  <si>
-    <t>Documento de implementación y Verificación de Requisito 05</t>
-  </si>
-  <si>
-    <t>Implementación y Verificación del Requisito 07: Seguridad de la información</t>
-  </si>
-  <si>
-    <t>Documento de implementación y Verificación de Requisito 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementación y Verificación del Requisito 08: Reporte y Estadísticas </t>
-  </si>
-  <si>
-    <t>Documento de implementación y Verificación de Requisito 07</t>
-  </si>
-  <si>
-    <t>Implementación y Verificación del Requisito 09: Accesibilidad</t>
-  </si>
-  <si>
-    <t>Documento de implementación y Verificación de Requisito 08</t>
-  </si>
-  <si>
-    <t>Implementación y Verificación del Requisito 10: Integración con sistemas existentes</t>
-  </si>
-  <si>
-    <t>Documento de implementación y Verificación de Requisito 09</t>
   </si>
   <si>
     <t>Verificación y Actualización de la Base de Datos</t>
@@ -697,6 +652,57 @@
   </si>
   <si>
     <t>SGDS.RDS-03.py</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 01</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 02</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 03</t>
+  </si>
+  <si>
+    <t>Archivo de Especificación de la BD</t>
+  </si>
+  <si>
+    <t>Archivo de Especificación de UI</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 04</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 05</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 06</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 07</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 08</t>
+  </si>
+  <si>
+    <t>Implementación y Verificación del Requisito 04: Validación de beneficios</t>
+  </si>
+  <si>
+    <t>Implementación y Verificación del Requisito 05: Entrega de beneficios</t>
+  </si>
+  <si>
+    <t>Implementación y Verificación del Requisito 06: Seguridad de la información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación y Verificación del Requisito 07: Reporte y Estadísticas </t>
+  </si>
+  <si>
+    <t>Implementación y Verificación del Requisito 08: Accesibilidad</t>
+  </si>
+  <si>
+    <t>Implementación y Verificación del Requisito 9: Integración con sistemas existentes</t>
+  </si>
+  <si>
+    <t>Archivo de implementación y Verificación de Requisito 09</t>
   </si>
 </sst>
 </file>
@@ -1910,8 +1916,8 @@
   </sheetPr>
   <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2444,7 +2450,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="104" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>66</v>
@@ -2471,7 +2477,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>69</v>
@@ -2498,7 +2504,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="104" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>72</v>
@@ -2554,7 +2560,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>77</v>
@@ -2565,8 +2571,8 @@
       <c r="G28" s="31">
         <v>45087</v>
       </c>
-      <c r="H28" s="33">
-        <v>0</v>
+      <c r="H28" s="20">
+        <v>1</v>
       </c>
       <c r="I28" s="111" t="s">
         <v>80</v>
@@ -2619,7 +2625,7 @@
       </c>
       <c r="H30" s="43">
         <f>SUM(H10:H29)/21</f>
-        <v>0.8571428571428571</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="I30" s="112"/>
     </row>
@@ -2629,10 +2635,10 @@
         <v>86</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>36</v>
@@ -2652,16 +2658,16 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>89</v>
-      </c>
       <c r="C32" s="45" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>36</v>
@@ -2682,13 +2688,13 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="9"/>
       <c r="B33" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>44</v>
@@ -2709,13 +2715,13 @@
     <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="9"/>
       <c r="B34" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="D34" s="107" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>36</v>
@@ -2736,13 +2742,13 @@
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="9"/>
       <c r="B35" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="D35" s="107" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E35" s="50" t="s">
         <v>72</v>
@@ -2763,13 +2769,13 @@
     <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="9"/>
       <c r="B36" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="104" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E36" s="50" t="s">
         <v>72</v>
@@ -2796,7 +2802,7 @@
         <v>79</v>
       </c>
       <c r="D37" s="108" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E37" s="50" t="s">
         <v>77</v>
@@ -2811,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="111" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J37" s="47"/>
       <c r="K37" s="2"/>
@@ -2822,10 +2828,10 @@
         <v>81</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>57</v>
@@ -2845,10 +2851,10 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="105"/>
@@ -2868,13 +2874,13 @@
     <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A40" s="9"/>
       <c r="B40" s="44" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="D40" s="108" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>44</v>
@@ -2895,13 +2901,13 @@
     <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="9"/>
       <c r="B41" s="44" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>36</v>
@@ -2922,13 +2928,13 @@
     <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="9"/>
       <c r="B42" s="44" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="D42" s="108" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>36</v>
@@ -2949,13 +2955,13 @@
     <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="9"/>
       <c r="B43" s="44" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D43" s="108" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>57</v>
@@ -2976,13 +2982,13 @@
     <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="9"/>
       <c r="B44" s="44" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D44" s="108" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>32</v>
@@ -3003,13 +3009,13 @@
     <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="9"/>
       <c r="B45" s="62" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D45" s="108" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>32</v>
@@ -3030,13 +3036,13 @@
     <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="9"/>
       <c r="B46" s="44" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="104" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>36</v>
@@ -3057,13 +3063,13 @@
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="9"/>
       <c r="B47" s="44" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C47" s="49" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="108" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>72</v>
@@ -3084,13 +3090,13 @@
     <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="9"/>
       <c r="B48" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" s="49" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>72</v>
@@ -3111,13 +3117,13 @@
     <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="9"/>
       <c r="B49" s="16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D49" s="104" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>57</v>
@@ -3132,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="111" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="J49" s="47"/>
       <c r="K49" s="2"/>
@@ -3146,7 +3152,7 @@
         <v>79</v>
       </c>
       <c r="D50" s="108" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>77</v>
@@ -3170,10 +3176,10 @@
         <v>81</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D51" s="104" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>77</v>
@@ -3188,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="111" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J51" s="47"/>
       <c r="K51" s="2"/>
@@ -3196,13 +3202,13 @@
     <row r="52" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="9"/>
       <c r="B52" s="64" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D52" s="104" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E52" s="50" t="s">
         <v>57</v>
@@ -3222,10 +3228,10 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="38" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C53" s="67"/>
       <c r="D53" s="109"/>
@@ -5041,70 +5047,70 @@
     <row r="1" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:3" ht="15.75" customHeight="1">
       <c r="B2" s="73" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1">
       <c r="B3" s="116" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C3" s="117"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
       <c r="B4" s="74" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1">
       <c r="B5" s="76" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1">
       <c r="B6" s="76" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1">
       <c r="B7" s="76" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" customHeight="1">
       <c r="B8" s="78" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" customHeight="1">
       <c r="B9" s="76" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" customHeight="1">
       <c r="B10" s="76" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" customHeight="1">
@@ -6132,29 +6138,29 @@
     <row r="1" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:13" ht="15.75" customHeight="1">
       <c r="B2" s="82" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
       <c r="J3" s="83" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K3" s="84" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L3" s="85" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M3" s="86" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" customHeight="1">
       <c r="B4" s="87" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G4" s="88" t="b">
         <v>1</v>
@@ -6163,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K4" s="91" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
@@ -6181,7 +6187,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
@@ -6193,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1">
@@ -6205,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="93" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
@@ -6217,7 +6223,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="95" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
@@ -6229,7 +6235,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="95" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
@@ -6241,7 +6247,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1">
@@ -6253,7 +6259,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1">
@@ -6265,7 +6271,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" customHeight="1">
@@ -6277,7 +6283,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="100" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" customHeight="1">
@@ -6288,7 +6294,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" customHeight="1">
